--- a/Tema15/Tema15.xlsx
+++ b/Tema15/Tema15.xlsx
@@ -10,6 +10,9 @@
     <sheet name="15.1.1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="15.1.2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="15.1.3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="15.7.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="15.7.2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="15.7.3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">Indicador</t>
   </si>
@@ -278,6 +281,9 @@
   </si>
   <si>
     <t xml:space="preserve">Brasília</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A escola tem cantina</t>
   </si>
 </sst>
 </file>
@@ -6468,4 +6474,5833 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.3512948021655</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.61369011450374</v>
+      </c>
+      <c r="L2" t="n">
+        <v>28.1885202955299</v>
+      </c>
+      <c r="M2" t="n">
+        <v>34.5140693088011</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30.1612658813119</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.94220229888096</v>
+      </c>
+      <c r="L3" t="n">
+        <v>26.3546193248143</v>
+      </c>
+      <c r="M3" t="n">
+        <v>33.9679124378095</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33.4683873717824</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.40643312140666</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28.751865122621</v>
+      </c>
+      <c r="M4" t="n">
+        <v>38.1849096209437</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24.6611306094638</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.91588516221804</v>
+      </c>
+      <c r="L5" t="n">
+        <v>16.9861367239216</v>
+      </c>
+      <c r="M5" t="n">
+        <v>32.3361244950059</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.3110524657268</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95901787702323</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.47144798169112</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14.1506569497624</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>50.6568488860934</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.372039865452</v>
+      </c>
+      <c r="L7" t="n">
+        <v>44.0477721953742</v>
+      </c>
+      <c r="M7" t="n">
+        <v>57.2659255768126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>33.9612720147947</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.43476764818971</v>
+      </c>
+      <c r="L8" t="n">
+        <v>25.2692871445395</v>
+      </c>
+      <c r="M8" t="n">
+        <v>42.6532568850499</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23.1012461123624</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.16368054948951</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18.8605101613131</v>
+      </c>
+      <c r="M9" t="n">
+        <v>27.3419820634116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n">
+        <v>24.8021387068458</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.69767242303412</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.5948699465319</v>
+      </c>
+      <c r="M10" t="n">
+        <v>34.0094074671597</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.04395046156876</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.78151945595377</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.55223649014198</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12.5356644329955</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>49.1797362035314</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.02599274222222</v>
+      </c>
+      <c r="L12" t="n">
+        <v>41.2889354267562</v>
+      </c>
+      <c r="M12" t="n">
+        <v>57.0705369803066</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="n">
+        <v>33.9420727079194</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.80864519133396</v>
+      </c>
+      <c r="L13" t="n">
+        <v>24.5173013184731</v>
+      </c>
+      <c r="M13" t="n">
+        <v>43.3668440973656</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19.7893713666911</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.57249141284578</v>
+      </c>
+      <c r="L14" t="n">
+        <v>14.7473808469748</v>
+      </c>
+      <c r="M14" t="n">
+        <v>24.8313618864074</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24.4011548614961</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.90086630329356</v>
+      </c>
+      <c r="L15" t="n">
+        <v>14.7956334139948</v>
+      </c>
+      <c r="M15" t="n">
+        <v>34.0066763089975</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.5161458352906</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.32114264505091</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.00682586347072</v>
+      </c>
+      <c r="M16" t="n">
+        <v>19.0254658071105</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="n">
+        <v>53.2583599403774</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.9077812901864</v>
+      </c>
+      <c r="L17" t="n">
+        <v>43.6392853676126</v>
+      </c>
+      <c r="M17" t="n">
+        <v>62.8774345131423</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>34.0392534256439</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.0492279382739</v>
+      </c>
+      <c r="L18" t="n">
+        <v>22.1829845323536</v>
+      </c>
+      <c r="M18" t="n">
+        <v>45.8955223189342</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="n">
+        <v>29.1929215695399</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.65590481765669</v>
+      </c>
+      <c r="L19" t="n">
+        <v>22.0274797960263</v>
+      </c>
+      <c r="M19" t="n">
+        <v>36.3583633430535</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="n">
+        <v>88.2688949178497</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.80886918860624</v>
+      </c>
+      <c r="L20" t="n">
+        <v>84.7235764554372</v>
+      </c>
+      <c r="M20" t="n">
+        <v>91.8142133802621</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="n">
+        <v>88.7113062030374</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.04956043347001</v>
+      </c>
+      <c r="L21" t="n">
+        <v>84.6942415692978</v>
+      </c>
+      <c r="M21" t="n">
+        <v>92.7283708367769</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="n">
+        <v>87.2192675774518</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.19016915856137</v>
+      </c>
+      <c r="L22" t="n">
+        <v>80.9666509220811</v>
+      </c>
+      <c r="M22" t="n">
+        <v>93.4718842328226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="n">
+        <v>95.8490874388633</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.20080550427067</v>
+      </c>
+      <c r="L23" t="n">
+        <v>93.4955518980553</v>
+      </c>
+      <c r="M23" t="n">
+        <v>98.2026229796712</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>94.0712698490547</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.26092494119157</v>
+      </c>
+      <c r="L24" t="n">
+        <v>91.599902377111</v>
+      </c>
+      <c r="M24" t="n">
+        <v>96.5426373209985</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="n">
+        <v>81.0502881094931</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.62866707451516</v>
+      </c>
+      <c r="L25" t="n">
+        <v>73.9382313315571</v>
+      </c>
+      <c r="M25" t="n">
+        <v>88.1623448874292</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="n">
+        <v>98.3504788583753</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.872093366157007</v>
+      </c>
+      <c r="L26" t="n">
+        <v>96.6412072695513</v>
+      </c>
+      <c r="M26" t="n">
+        <v>100.059750447199</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="n">
+        <v>92.4999055323619</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.69716677283839</v>
+      </c>
+      <c r="L27" t="n">
+        <v>89.1735197818406</v>
+      </c>
+      <c r="M27" t="n">
+        <v>95.8262912828832</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>96.6093837997618</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.15737229439557</v>
+      </c>
+      <c r="L28" t="n">
+        <v>94.340975786042</v>
+      </c>
+      <c r="M28" t="n">
+        <v>98.8777918134816</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="n">
+        <v>93.296924197858</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.51373542463681</v>
+      </c>
+      <c r="L29" t="n">
+        <v>90.3300572834474</v>
+      </c>
+      <c r="M29" t="n">
+        <v>96.2637911122686</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="n">
+        <v>82.6996849154577</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.06123930955236</v>
+      </c>
+      <c r="L30" t="n">
+        <v>74.7398021361368</v>
+      </c>
+      <c r="M30" t="n">
+        <v>90.6595676947787</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="n">
+        <v>98.7986659409306</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.642335401766479</v>
+      </c>
+      <c r="L31" t="n">
+        <v>97.5397116874732</v>
+      </c>
+      <c r="M31" t="n">
+        <v>100.057620194388</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="n">
+        <v>90.0803289925003</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.29298365373443</v>
+      </c>
+      <c r="L32" t="n">
+        <v>85.5861636140417</v>
+      </c>
+      <c r="M32" t="n">
+        <v>94.5744943709588</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="n">
+        <v>94.4662634000132</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.53572207352146</v>
+      </c>
+      <c r="L33" t="n">
+        <v>91.4563034456479</v>
+      </c>
+      <c r="M33" t="n">
+        <v>97.4762233543784</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="n">
+        <v>96.0321326914012</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.15726818966184</v>
+      </c>
+      <c r="L34" t="n">
+        <v>93.7639287192101</v>
+      </c>
+      <c r="M34" t="n">
+        <v>98.3003366635923</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="n">
+        <v>77.1581574874684</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.27103998691611</v>
+      </c>
+      <c r="L35" t="n">
+        <v>64.8671449675023</v>
+      </c>
+      <c r="M35" t="n">
+        <v>89.4491700074346</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="n">
+        <v>97.4469467219</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.7088022515478</v>
+      </c>
+      <c r="L36" t="n">
+        <v>94.0977558521653</v>
+      </c>
+      <c r="M36" t="n">
+        <v>100.796137591635</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="n">
+        <v>98.1410011800567</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.762597772155092</v>
+      </c>
+      <c r="L37" t="n">
+        <v>96.6463370119422</v>
+      </c>
+      <c r="M37" t="n">
+        <v>99.6356653481711</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.3512948021655</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.61369011450374</v>
+      </c>
+      <c r="J2" t="n">
+        <v>28.1885202955299</v>
+      </c>
+      <c r="K2" t="n">
+        <v>34.5140693088011</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24.6611306094638</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.91588516221804</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.9861367239216</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32.3361244950059</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.3110524657268</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.95901787702323</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.47144798169112</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.1506569497624</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50.6568488860934</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.372039865452</v>
+      </c>
+      <c r="J5" t="n">
+        <v>44.0477721953742</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.2659255768126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33.9612720147947</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.43476764818971</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.2692871445395</v>
+      </c>
+      <c r="K6" t="n">
+        <v>42.6532568850499</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23.1012461123624</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.16368054948951</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.8605101613131</v>
+      </c>
+      <c r="K7" t="n">
+        <v>27.3419820634116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="n">
+        <v>57.2134554394636</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.79508553429082</v>
+      </c>
+      <c r="J8" t="n">
+        <v>41.9353685358445</v>
+      </c>
+      <c r="K8" t="n">
+        <v>72.4915423430828</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.64622745367679</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.76123801876782</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.805735631310818</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.0981905386644</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.33584285109927</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.44167623276556</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1.36968259610876</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16.0413682983073</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>79.1414889540062</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.7882146673206</v>
+      </c>
+      <c r="J11" t="n">
+        <v>71.7167246403515</v>
+      </c>
+      <c r="K11" t="n">
+        <v>86.566253267661</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26.2716727915292</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.95447065561226</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.6811967904484</v>
+      </c>
+      <c r="K12" t="n">
+        <v>41.8621487926099</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="n">
+        <v>53.2011867152943</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.62254333226096</v>
+      </c>
+      <c r="J13" t="n">
+        <v>40.2212402980069</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66.1811331325816</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.86245078864319</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.50445368729401</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.993847776058331</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14.7310538012281</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.32525644741672</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.82421824396681</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.74985438930087</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9.90065850553256</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="n">
+        <v>19.0072186330992</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.57747525802161</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.11560401817354</v>
+      </c>
+      <c r="K16" t="n">
+        <v>31.8988332480249</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.8822326149175</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.77234134797353</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.448543420038151</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11.3159218097969</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10.9938616506749</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.98358343793717</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.22621759836771</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20.761505702982</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.90792313402402</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.48616143347131</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0351362646677705</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.78071000338026</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.70566092220649</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.70263448284189</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.408594672460353</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11.0027271719526</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="n">
+        <v>27.8804905939803</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.30043031305517</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15.5318740932877</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40.2291070946728</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="n">
+        <v>29.8994535304184</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.17193005882625</v>
+      </c>
+      <c r="J22" t="n">
+        <v>17.8026929000188</v>
+      </c>
+      <c r="K22" t="n">
+        <v>41.996214160818</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11.3512142117517</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.49552773259997</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1.37978620472538</v>
+      </c>
+      <c r="K23" t="n">
+        <v>24.0822146282287</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="n">
+        <v>23.4303671576</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.83071933497311</v>
+      </c>
+      <c r="J24" t="n">
+        <v>10.0424032725513</v>
+      </c>
+      <c r="K24" t="n">
+        <v>36.8183310426487</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="n">
+        <v>41.3000224425448</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.6738705809033</v>
+      </c>
+      <c r="J25" t="n">
+        <v>26.2595124819528</v>
+      </c>
+      <c r="K25" t="n">
+        <v>56.3405324031367</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.3990822173249</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.73577731576717</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.962942791300422</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9.76110722595021</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="n">
+        <v>80.8126799656433</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.17582139440776</v>
+      </c>
+      <c r="J27" t="n">
+        <v>70.6682564421922</v>
+      </c>
+      <c r="K27" t="n">
+        <v>90.9571034890944</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="n">
+        <v>56.5987878001548</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.33513012872984</v>
+      </c>
+      <c r="J28" t="n">
+        <v>42.2221969259297</v>
+      </c>
+      <c r="K28" t="n">
+        <v>70.97537867438</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11.0619317059209</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.38286037823603</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.47168321531067</v>
+      </c>
+      <c r="K29" t="n">
+        <v>19.6521801965311</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="n">
+        <v>27.4545224451355</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.00390149045347</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.80719980350019</v>
+      </c>
+      <c r="K30" t="n">
+        <v>45.1018450867708</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="n">
+        <v>22.4304453000399</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.80703742115833</v>
+      </c>
+      <c r="J31" t="n">
+        <v>13.0088250822333</v>
+      </c>
+      <c r="K31" t="n">
+        <v>31.8520655178466</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="n">
+        <v>69.3435232685631</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.55127811156729</v>
+      </c>
+      <c r="J32" t="n">
+        <v>56.5032541171856</v>
+      </c>
+      <c r="K32" t="n">
+        <v>82.1837924199405</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.341450945153829</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.340669507996563</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.326249021150414</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.00915091145807</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9.35866740610582</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.45365691951158</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-3.29026772471459</v>
+      </c>
+      <c r="K34" t="n">
+        <v>22.0076025369262</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="n">
+        <v>88.2688949178497</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.80886918860624</v>
+      </c>
+      <c r="J35" t="n">
+        <v>84.7235764554372</v>
+      </c>
+      <c r="K35" t="n">
+        <v>91.8142133802621</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="n">
+        <v>95.8490874388633</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.20080550427067</v>
+      </c>
+      <c r="J36" t="n">
+        <v>93.4955518980553</v>
+      </c>
+      <c r="K36" t="n">
+        <v>98.2026229796712</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="n">
+        <v>94.0712698490547</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.26092494119157</v>
+      </c>
+      <c r="J37" t="n">
+        <v>91.599902377111</v>
+      </c>
+      <c r="K37" t="n">
+        <v>96.5426373209985</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="n">
+        <v>81.0502881094931</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.62866707451516</v>
+      </c>
+      <c r="J38" t="n">
+        <v>73.9382313315571</v>
+      </c>
+      <c r="K38" t="n">
+        <v>88.1623448874292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="n">
+        <v>98.3504788583753</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.872093366157007</v>
+      </c>
+      <c r="J39" t="n">
+        <v>96.6412072695513</v>
+      </c>
+      <c r="K39" t="n">
+        <v>100.059750447199</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="n">
+        <v>92.4999055323619</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.69716677283839</v>
+      </c>
+      <c r="J40" t="n">
+        <v>89.1735197818406</v>
+      </c>
+      <c r="K40" t="n">
+        <v>95.8262912828832</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="n">
+        <v>89.2714239141275</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.48269289046763</v>
+      </c>
+      <c r="J41" t="n">
+        <v>80.4855072950572</v>
+      </c>
+      <c r="K41" t="n">
+        <v>98.0573405331978</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="n">
+        <v>91.1801026172744</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.33722033731924</v>
+      </c>
+      <c r="J42" t="n">
+        <v>74.8394510249538</v>
+      </c>
+      <c r="K42" t="n">
+        <v>107.520754209595</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="n">
+        <v>100</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>100</v>
+      </c>
+      <c r="K43" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="n">
+        <v>81.7283695420554</v>
+      </c>
+      <c r="I44" t="n">
+        <v>15.4994716488833</v>
+      </c>
+      <c r="J44" t="n">
+        <v>51.3499633308444</v>
+      </c>
+      <c r="K44" t="n">
+        <v>112.106775753266</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="n">
+        <v>98.6191482793577</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.36924670058665</v>
+      </c>
+      <c r="J45" t="n">
+        <v>95.9354740602576</v>
+      </c>
+      <c r="K45" t="n">
+        <v>101.302822498458</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="n">
+        <v>77.3066428809048</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11.1114414997358</v>
+      </c>
+      <c r="J46" t="n">
+        <v>55.5286177250991</v>
+      </c>
+      <c r="K46" t="n">
+        <v>99.0846680367106</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="n">
+        <v>93.1513265476376</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.7058505213187</v>
+      </c>
+      <c r="J47" t="n">
+        <v>83.9280290092239</v>
+      </c>
+      <c r="K47" t="n">
+        <v>102.374624086051</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="n">
+        <v>81.9993864207355</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.84543001625328</v>
+      </c>
+      <c r="J48" t="n">
+        <v>70.5425541147297</v>
+      </c>
+      <c r="K48" t="n">
+        <v>93.4562187267413</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" t="n">
+        <v>95.0379102546818</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.67760347605495</v>
+      </c>
+      <c r="J49" t="n">
+        <v>89.7899038767349</v>
+      </c>
+      <c r="K49" t="n">
+        <v>100.285916632629</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" t="n">
+        <v>94.2390577893513</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.39335353344153</v>
+      </c>
+      <c r="J50" t="n">
+        <v>89.5481710615343</v>
+      </c>
+      <c r="K50" t="n">
+        <v>98.9299445171684</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" t="n">
+        <v>97.1914451534543</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.44168956225964</v>
+      </c>
+      <c r="J51" t="n">
+        <v>94.365785534538</v>
+      </c>
+      <c r="K51" t="n">
+        <v>100.01710477237</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" t="n">
+        <v>98.6474961353491</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.14076694177243</v>
+      </c>
+      <c r="J52" t="n">
+        <v>96.4116340147212</v>
+      </c>
+      <c r="K52" t="n">
+        <v>100.883358255977</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" t="n">
+        <v>94.1094178328217</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.34916676375182</v>
+      </c>
+      <c r="J53" t="n">
+        <v>85.5852076131096</v>
+      </c>
+      <c r="K53" t="n">
+        <v>102.633628052534</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" t="n">
+        <v>98.8459624551625</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.734652628051177</v>
+      </c>
+      <c r="J54" t="n">
+        <v>97.4060697630345</v>
+      </c>
+      <c r="K54" t="n">
+        <v>100.28585514729</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="n">
+        <v>99.5620921027867</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.436809191508128</v>
+      </c>
+      <c r="J55" t="n">
+        <v>98.7059618193148</v>
+      </c>
+      <c r="K55" t="n">
+        <v>100.418222386259</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="n">
+        <v>92.0984869533686</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.32329722665869</v>
+      </c>
+      <c r="J56" t="n">
+        <v>85.5849440791957</v>
+      </c>
+      <c r="K56" t="n">
+        <v>98.6120298275415</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="n">
+        <v>96.8701070062676</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.80610312384938</v>
+      </c>
+      <c r="J57" t="n">
+        <v>93.3302099311575</v>
+      </c>
+      <c r="K57" t="n">
+        <v>100.410004081378</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" t="n">
+        <v>93.9331547168008</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.26010438506887</v>
+      </c>
+      <c r="J58" t="n">
+        <v>89.5034315207648</v>
+      </c>
+      <c r="K58" t="n">
+        <v>98.3628779128369</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="n">
+        <v>95.4829499817694</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.60739605309666</v>
+      </c>
+      <c r="J59" t="n">
+        <v>90.3725476242681</v>
+      </c>
+      <c r="K59" t="n">
+        <v>100.593352339271</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="n">
+        <v>68.2700491400475</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6.50180265281494</v>
+      </c>
+      <c r="J60" t="n">
+        <v>55.5267501059432</v>
+      </c>
+      <c r="K60" t="n">
+        <v>81.0133481741518</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" t="n">
+        <v>100</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>100</v>
+      </c>
+      <c r="K61" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" t="n">
+        <v>95.6694547569697</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.19472730502054</v>
+      </c>
+      <c r="J62" t="n">
+        <v>89.4079042987028</v>
+      </c>
+      <c r="K62" t="n">
+        <v>101.931005215237</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" t="n">
+        <v>98.2726020431182</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.16893730855129</v>
+      </c>
+      <c r="J63" t="n">
+        <v>95.9815270181725</v>
+      </c>
+      <c r="K63" t="n">
+        <v>100.563677068064</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="n">
+        <v>97.7051206753379</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.67311640085905</v>
+      </c>
+      <c r="J64" t="n">
+        <v>94.4258727877109</v>
+      </c>
+      <c r="K64" t="n">
+        <v>100.984368562965</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" t="n">
+        <v>90.6557767514487</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.98025086713068</v>
+      </c>
+      <c r="J65" t="n">
+        <v>82.8546284024382</v>
+      </c>
+      <c r="K65" t="n">
+        <v>98.4569251004591</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" t="n">
+        <v>86.2964264997578</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.6481753464039</v>
+      </c>
+      <c r="J66" t="n">
+        <v>79.1461342115192</v>
+      </c>
+      <c r="K66" t="n">
+        <v>93.4467187879963</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" t="n">
+        <v>100</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>100</v>
+      </c>
+      <c r="K67" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="n">
+        <v>85.5262736459617</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.32145973589832</v>
+      </c>
+      <c r="J2" t="n">
+        <v>75.096404218421</v>
+      </c>
+      <c r="K2" t="n">
+        <v>95.9561430735025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.45723336115565</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.55861026843253</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-4.39740655360667</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.311873275918</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="n">
+        <v>90.183617929578</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.50934054933944</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79.3855088743066</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100.981726984849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38.2245592130846</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.952981384144</v>
+      </c>
+      <c r="J6" t="n">
+        <v>18.7170741613648</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57.7320442648045</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>61.9022670953754</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.01598767866633</v>
+      </c>
+      <c r="J7" t="n">
+        <v>44.2312559601325</v>
+      </c>
+      <c r="K7" t="n">
+        <v>79.5732782306183</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.24558103083656</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.30684723828311</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-5.15564842765418</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.6468104893273</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31.1679696091861</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.34811527101939</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.7659283237393</v>
+      </c>
+      <c r="K9" t="n">
+        <v>45.5700108946329</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.5235438041807</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.94874029997178</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.904263078313972</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28.1428245300474</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.29056668895326</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.75751973425482</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3.95392861500486</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22.5350619929114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16.6820514796394</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.05607446949097</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.85239964720458</v>
+      </c>
+      <c r="K12" t="n">
+        <v>30.5117033120743</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.40668880072821</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.69626954152066</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-2.75779434688477</v>
+      </c>
+      <c r="K13" t="n">
+        <v>19.5711719483412</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.93839068103619</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.83677171090553</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-2.62157970470073</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.4983610667731</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="n">
+        <v>56.4913021407449</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.4632637952734</v>
+      </c>
+      <c r="J15" t="n">
+        <v>32.063753972187</v>
+      </c>
+      <c r="K15" t="n">
+        <v>80.9188503093028</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="n">
+        <v>68.2601313840473</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.9824655977728</v>
+      </c>
+      <c r="J16" t="n">
+        <v>52.6147863045826</v>
+      </c>
+      <c r="K16" t="n">
+        <v>83.9054764635119</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.77173931683172</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.00786973460713</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-4.00346898680647</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19.5469476204699</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10.4540611214547</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.25222269731507</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-1.80007018860675</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22.7081924315161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="n">
+        <v>36.4081124042596</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10.2305076192357</v>
+      </c>
+      <c r="J19" t="n">
+        <v>16.356685926995</v>
+      </c>
+      <c r="K19" t="n">
+        <v>56.4595388815243</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.30594059014976</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.38795736729553</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-6.21422578452677</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18.8261069648263</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="n">
+        <v>80.0592220353037</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.93462823838763</v>
+      </c>
+      <c r="J21" t="n">
+        <v>70.3875284109696</v>
+      </c>
+      <c r="K21" t="n">
+        <v>89.7309156596378</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="n">
+        <v>94.227267790849</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.69472192491773</v>
+      </c>
+      <c r="J22" t="n">
+        <v>85.0257819005797</v>
+      </c>
+      <c r="K22" t="n">
+        <v>103.428753681118</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>19.1533195026344</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10.9005662414467</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-2.21139774169431</v>
+      </c>
+      <c r="K23" t="n">
+        <v>40.5180367469631</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17.770692194921</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.21128792682267</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.283100392880081</v>
+      </c>
+      <c r="K24" t="n">
+        <v>35.824484782722</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="n">
+        <v>51.2079190621143</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11.556573576942</v>
+      </c>
+      <c r="J25" t="n">
+        <v>28.5574510666208</v>
+      </c>
+      <c r="K25" t="n">
+        <v>73.8583870576079</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="n">
+        <v>85.7947867399616</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.05694953498439</v>
+      </c>
+      <c r="J26" t="n">
+        <v>73.9233837952156</v>
+      </c>
+      <c r="K26" t="n">
+        <v>97.6661896847076</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9.35866740610582</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.45365691951158</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-3.29026772471459</v>
+      </c>
+      <c r="K28" t="n">
+        <v>22.0076025369262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="n">
+        <v>90.447835179824</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.04631325588609</v>
+      </c>
+      <c r="J30" t="n">
+        <v>72.71738700542</v>
+      </c>
+      <c r="K30" t="n">
+        <v>108.178283354228</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="n">
+        <v>82.0360579652986</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15.5703207555424</v>
+      </c>
+      <c r="J32" t="n">
+        <v>51.5187900566989</v>
+      </c>
+      <c r="K32" t="n">
+        <v>112.553325873898</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.000000000000000393303690733159</v>
+      </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="n">
+        <v>86.3748688545891</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12.5757853808256</v>
+      </c>
+      <c r="J34" t="n">
+        <v>61.7267824308655</v>
+      </c>
+      <c r="K34" t="n">
+        <v>111.022955278313</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="n">
+        <v>100</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.000000000000000496932180056352</v>
+      </c>
+      <c r="J35" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="n">
+        <v>97.569937863158</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.82386015174347</v>
+      </c>
+      <c r="J36" t="n">
+        <v>93.9952376529031</v>
+      </c>
+      <c r="K36" t="n">
+        <v>101.144638073413</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="n">
+        <v>96.0883610762463</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.80294844785543</v>
+      </c>
+      <c r="J37" t="n">
+        <v>88.6347190833871</v>
+      </c>
+      <c r="K37" t="n">
+        <v>103.542003069105</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="n">
+        <v>98.4994542467571</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.19454836264827</v>
+      </c>
+      <c r="J38" t="n">
+        <v>96.1581824781752</v>
+      </c>
+      <c r="K38" t="n">
+        <v>100.840726015339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="n">
+        <v>94.9560553219462</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.96157534089536</v>
+      </c>
+      <c r="J39" t="n">
+        <v>89.1514743162894</v>
+      </c>
+      <c r="K39" t="n">
+        <v>100.760636327603</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="n">
+        <v>96.8975347201751</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.85533391371296</v>
+      </c>
+      <c r="J40" t="n">
+        <v>91.3011830854619</v>
+      </c>
+      <c r="K40" t="n">
+        <v>102.493886354888</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="n">
+        <v>97.6118245901625</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.67917901172916</v>
+      </c>
+      <c r="J41" t="n">
+        <v>94.3206942035778</v>
+      </c>
+      <c r="K41" t="n">
+        <v>100.902954976747</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="n">
+        <v>100</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>100</v>
+      </c>
+      <c r="K42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="n">
+        <v>100</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>100</v>
+      </c>
+      <c r="K43" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="n">
+        <v>90.6405588742666</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.21870693535025</v>
+      </c>
+      <c r="J44" t="n">
+        <v>78.4521172505707</v>
+      </c>
+      <c r="K44" t="n">
+        <v>102.829000497963</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="n">
+        <v>98.0719503609285</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.29267202801009</v>
+      </c>
+      <c r="J45" t="n">
+        <v>95.5383597422064</v>
+      </c>
+      <c r="K45" t="n">
+        <v>100.605540979651</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="n">
+        <v>95.8091192326715</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.21923886335015</v>
+      </c>
+      <c r="J46" t="n">
+        <v>87.5395630183335</v>
+      </c>
+      <c r="K46" t="n">
+        <v>104.078675447009</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="n">
+        <v>94.250921589528</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.68728461535773</v>
+      </c>
+      <c r="J47" t="n">
+        <v>85.0640125581381</v>
+      </c>
+      <c r="K47" t="n">
+        <v>103.437830620918</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="n">
+        <v>96.963160429571</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.34068884379468</v>
+      </c>
+      <c r="J48" t="n">
+        <v>92.3754945967188</v>
+      </c>
+      <c r="K48" t="n">
+        <v>101.550826262423</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" t="n">
+        <v>100</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>100</v>
+      </c>
+      <c r="K49" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" t="n">
+        <v>97.6117592371559</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.3896736503878</v>
+      </c>
+      <c r="J50" t="n">
+        <v>92.9280849475915</v>
+      </c>
+      <c r="K50" t="n">
+        <v>102.29543352672</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" t="n">
+        <v>97.0090633848212</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.59582616096648</v>
+      </c>
+      <c r="J51" t="n">
+        <v>91.9213375992</v>
+      </c>
+      <c r="K51" t="n">
+        <v>102.096789170442</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" t="n">
+        <v>100</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>100</v>
+      </c>
+      <c r="K52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" t="n">
+        <v>95.669325796858</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.75061003991063</v>
+      </c>
+      <c r="J53" t="n">
+        <v>88.3182651985788</v>
+      </c>
+      <c r="K53" t="n">
+        <v>103.020386395137</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" t="n">
+        <v>91.6754722599194</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.47135094284868</v>
+      </c>
+      <c r="J54" t="n">
+        <v>84.8717494342368</v>
+      </c>
+      <c r="K54" t="n">
+        <v>98.4791950856019</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="n">
+        <v>100</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>100</v>
+      </c>
+      <c r="K55" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Tema15/Tema15.xlsx
+++ b/Tema15/Tema15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41a60f14d7ca40b8/Documents/ENAP/Tema15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C8B5E4AAD85AB9D0F5D2DCEA7DA5C85F0B6B3ECF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E626E74E-B2A0-4808-B62D-95F8F662E4D3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_EEE2124C363BF30572E95680CC46E6E47A155B62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24669BC8-1758-47E7-8736-B0CB2A0E4A92}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15.1.1" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <sheet name="15.15.2" sheetId="30" r:id="rId29"/>
     <sheet name="15.15.3" sheetId="31" r:id="rId30"/>
     <sheet name="15.16.1" sheetId="32" r:id="rId31"/>
-    <sheet name="15.16.2" sheetId="33" r:id="rId32"/>
+    <sheet name="15.16.2" sheetId="35" r:id="rId32"/>
     <sheet name="15.16.3" sheetId="34" r:id="rId33"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17845" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17845" uniqueCount="149">
   <si>
     <t>Indicador</t>
   </si>
@@ -351,6 +351,159 @@
   </si>
   <si>
     <t>Os alimentos da horta são usados para preparo da comida ou realização de ações de educação alimentar/nutricional</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Variavel1</t>
+  </si>
+  <si>
+    <t>Valor_Var1</t>
+  </si>
+  <si>
+    <t>Variavel2</t>
+  </si>
+  <si>
+    <t>Valor_Var2</t>
+  </si>
+  <si>
+    <t>Variavel3</t>
+  </si>
+  <si>
+    <t>Valor_Var3</t>
+  </si>
+  <si>
+    <t>Estimativa</t>
+  </si>
+  <si>
+    <t>Erro_Padrao</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Percentual de escolares</t>
+  </si>
+  <si>
+    <t>Localização</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Os alimentos da horta são usados para preparo da comida ou realização de ações de educação alimentar/nutricional</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Dependência Administrativa</t>
+  </si>
+  <si>
+    <t>Pública</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Sudeste</t>
+  </si>
+  <si>
+    <t>Sul</t>
+  </si>
+  <si>
+    <t>Centro-Oeste</t>
+  </si>
+  <si>
+    <t>Rondônia</t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Roraima</t>
+  </si>
+  <si>
+    <t>Pará</t>
+  </si>
+  <si>
+    <t>Amapá</t>
+  </si>
+  <si>
+    <t>Tocantins</t>
+  </si>
+  <si>
+    <t>Maranhão</t>
+  </si>
+  <si>
+    <t>Piauí</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Paraíba</t>
+  </si>
+  <si>
+    <t>Pernambuco</t>
+  </si>
+  <si>
+    <t>Alagoas</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Minas Gerais</t>
+  </si>
+  <si>
+    <t>Espírito Santo</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Paraná</t>
+  </si>
+  <si>
+    <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t>Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t>Mato Grosso</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Distrito Federal</t>
+  </si>
+  <si>
+    <t>Privada</t>
   </si>
 </sst>
 </file>
@@ -701,1538 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>96.705799668885604</v>
-      </c>
-      <c r="K2">
-        <v>0.70982522334535603</v>
-      </c>
-      <c r="L2">
-        <v>95.314567795810603</v>
-      </c>
-      <c r="M2">
-        <v>98.097031541960604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>97.182722602590502</v>
-      </c>
-      <c r="K3">
-        <v>0.59857832747554196</v>
-      </c>
-      <c r="L3">
-        <v>96.009530638812294</v>
-      </c>
-      <c r="M3">
-        <v>98.355914566368796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4">
-        <v>95.856477562995195</v>
-      </c>
-      <c r="K4">
-        <v>1.24627388130476</v>
-      </c>
-      <c r="L4">
-        <v>93.413825640764898</v>
-      </c>
-      <c r="M4">
-        <v>98.299129485225393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5">
-        <v>88.088235938525202</v>
-      </c>
-      <c r="K5">
-        <v>4.2130141216591097</v>
-      </c>
-      <c r="L5">
-        <v>79.830879993714703</v>
-      </c>
-      <c r="M5">
-        <v>96.3455918833357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6">
-        <v>96.733260908018806</v>
-      </c>
-      <c r="K6">
-        <v>1.07504508490045</v>
-      </c>
-      <c r="L6">
-        <v>94.626211259857101</v>
-      </c>
-      <c r="M6">
-        <v>98.840310556180498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7">
-        <v>98.352405236979493</v>
-      </c>
-      <c r="K7">
-        <v>1.03015749603909</v>
-      </c>
-      <c r="L7">
-        <v>96.3333336463389</v>
-      </c>
-      <c r="M7">
-        <v>100.37147682762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8">
-        <v>99.034507448966494</v>
-      </c>
-      <c r="K8">
-        <v>0.87479968618921999</v>
-      </c>
-      <c r="L8">
-        <v>97.319931570348601</v>
-      </c>
-      <c r="M8">
-        <v>100.749083327584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9">
-        <v>97.543083370246293</v>
-      </c>
-      <c r="K9">
-        <v>0.89980349937996995</v>
-      </c>
-      <c r="L9">
-        <v>95.779500918298496</v>
-      </c>
-      <c r="M9">
-        <v>99.306665822194205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10">
-        <v>91.416218893791793</v>
-      </c>
-      <c r="K10">
-        <v>2.9527088419099399</v>
-      </c>
-      <c r="L10">
-        <v>85.629015906815297</v>
-      </c>
-      <c r="M10">
-        <v>97.203421880768204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11">
-        <v>96.155470444560194</v>
-      </c>
-      <c r="K11">
-        <v>1.4304714350104599</v>
-      </c>
-      <c r="L11">
-        <v>93.351797951026398</v>
-      </c>
-      <c r="M11">
-        <v>98.959142938094004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12">
-        <v>99.051098562439506</v>
-      </c>
-      <c r="K12">
-        <v>0.59033406228724805</v>
-      </c>
-      <c r="L12">
-        <v>97.894065061509295</v>
-      </c>
-      <c r="M12">
-        <v>100.20813206337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13">
-        <v>99.263990917664898</v>
-      </c>
-      <c r="K13">
-        <v>0.71589057902169495</v>
-      </c>
-      <c r="L13">
-        <v>97.860871165910794</v>
-      </c>
-      <c r="M13">
-        <v>100.667110669419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14">
-        <v>96.9967270818277</v>
-      </c>
-      <c r="K14">
-        <v>1.2096080418175399</v>
-      </c>
-      <c r="L14">
-        <v>94.625938884455294</v>
-      </c>
-      <c r="M14">
-        <v>99.367515279200106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15">
-        <v>82.256234176933404</v>
-      </c>
-      <c r="K15">
-        <v>7.9762834095446697</v>
-      </c>
-      <c r="L15">
-        <v>66.623005963741505</v>
-      </c>
-      <c r="M15">
-        <v>97.889462390125303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16">
-        <v>97.743946003559202</v>
-      </c>
-      <c r="K16">
-        <v>0.60947997985759095</v>
-      </c>
-      <c r="L16">
-        <v>96.549387193740202</v>
-      </c>
-      <c r="M16">
-        <v>98.938504813378302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17">
-        <v>97.127849329693603</v>
-      </c>
-      <c r="K17">
-        <v>2.1210111888380698</v>
-      </c>
-      <c r="L17">
-        <v>92.970743788764494</v>
-      </c>
-      <c r="M17">
-        <v>101.284954870623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18">
-        <v>98.621052106277702</v>
-      </c>
-      <c r="K18">
-        <v>1.1748791346335501</v>
-      </c>
-      <c r="L18">
-        <v>96.318331316208301</v>
-      </c>
-      <c r="M18">
-        <v>100.923772896347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19">
-        <v>98.542432657372004</v>
-      </c>
-      <c r="K19">
-        <v>0.67867328571959495</v>
-      </c>
-      <c r="L19">
-        <v>97.212257460092104</v>
-      </c>
-      <c r="M19">
-        <v>99.872607854651804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20">
-        <v>83.834183246223702</v>
-      </c>
-      <c r="K20">
-        <v>1.3952545634505999</v>
-      </c>
-      <c r="L20">
-        <v>81.099534552595401</v>
-      </c>
-      <c r="M20">
-        <v>86.568831939852004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21">
-        <v>83.131112319752305</v>
-      </c>
-      <c r="K21">
-        <v>1.4810317063995</v>
-      </c>
-      <c r="L21">
-        <v>80.228343515247403</v>
-      </c>
-      <c r="M21">
-        <v>86.033881124257206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22">
-        <v>85.493646031302404</v>
-      </c>
-      <c r="K22">
-        <v>2.1402455166196002</v>
-      </c>
-      <c r="L22">
-        <v>81.298841900654693</v>
-      </c>
-      <c r="M22">
-        <v>89.6884501619502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23">
-        <v>84.096235611713794</v>
-      </c>
-      <c r="K23">
-        <v>3.3222402538012199</v>
-      </c>
-      <c r="L23">
-        <v>77.5847643662742</v>
-      </c>
-      <c r="M23">
-        <v>90.607706857153403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24">
-        <v>74.832354273841403</v>
-      </c>
-      <c r="K24">
-        <v>1.9594154448877401</v>
-      </c>
-      <c r="L24">
-        <v>70.991970571110002</v>
-      </c>
-      <c r="M24">
-        <v>78.672737976572904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25">
-        <v>84.038862278699796</v>
-      </c>
-      <c r="K25">
-        <v>2.6299530865671898</v>
-      </c>
-      <c r="L25">
-        <v>78.884248947998202</v>
-      </c>
-      <c r="M25">
-        <v>89.193475609401503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26">
-        <v>96.911046485399694</v>
-      </c>
-      <c r="K26">
-        <v>1.34628816420917</v>
-      </c>
-      <c r="L26">
-        <v>94.272370170737105</v>
-      </c>
-      <c r="M26">
-        <v>99.549722800062199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27">
-        <v>90.484924867789502</v>
-      </c>
-      <c r="K27">
-        <v>1.8687781434950701</v>
-      </c>
-      <c r="L27">
-        <v>86.822187011443603</v>
-      </c>
-      <c r="M27">
-        <v>94.1476627241355</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28">
-        <v>83.545012324909706</v>
-      </c>
-      <c r="K28">
-        <v>3.2909483018049701</v>
-      </c>
-      <c r="L28">
-        <v>77.094872178388698</v>
-      </c>
-      <c r="M28">
-        <v>89.9951524714307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29">
-        <v>74.034021800789105</v>
-      </c>
-      <c r="K29">
-        <v>2.08113006044147</v>
-      </c>
-      <c r="L29">
-        <v>69.955081835180195</v>
-      </c>
-      <c r="M29">
-        <v>78.112961766398101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30">
-        <v>82.930123877285496</v>
-      </c>
-      <c r="K30">
-        <v>2.7872951951118501</v>
-      </c>
-      <c r="L30">
-        <v>77.4671256805848</v>
-      </c>
-      <c r="M30">
-        <v>88.393122073986305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31">
-        <v>97.073471483504306</v>
-      </c>
-      <c r="K31">
-        <v>1.4802739941310801</v>
-      </c>
-      <c r="L31">
-        <v>94.172187767756199</v>
-      </c>
-      <c r="M31">
-        <v>99.974755199252499</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32">
-        <v>92.659652272130302</v>
-      </c>
-      <c r="K32">
-        <v>1.5356245649325799</v>
-      </c>
-      <c r="L32">
-        <v>89.649883431087403</v>
-      </c>
-      <c r="M32">
-        <v>95.669421113173101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33">
-        <v>85.348912855876307</v>
-      </c>
-      <c r="K33">
-        <v>5.4432457000066901</v>
-      </c>
-      <c r="L33">
-        <v>74.680347324860605</v>
-      </c>
-      <c r="M33">
-        <v>96.017478386891895</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34">
-        <v>76.827780216066103</v>
-      </c>
-      <c r="K34">
-        <v>3.3873687257662399</v>
-      </c>
-      <c r="L34">
-        <v>70.188659511206893</v>
-      </c>
-      <c r="M34">
-        <v>83.466900920925298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35">
-        <v>86.670613718765594</v>
-      </c>
-      <c r="K35">
-        <v>3.90656836475728</v>
-      </c>
-      <c r="L35">
-        <v>79.013880420697802</v>
-      </c>
-      <c r="M35">
-        <v>94.3273470168334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36">
-        <v>96.568965003146403</v>
-      </c>
-      <c r="K36">
-        <v>2.4453849725355998</v>
-      </c>
-      <c r="L36">
-        <v>91.7760985286411</v>
-      </c>
-      <c r="M36">
-        <v>101.361831477652</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37">
-        <v>85.568193615934106</v>
-      </c>
-      <c r="K37">
-        <v>4.0067724528615098</v>
-      </c>
-      <c r="L37">
-        <v>77.7150639140783</v>
-      </c>
-      <c r="M37">
-        <v>93.421323317789899</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2297,6 +919,1537 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>96.705799668885604</v>
+      </c>
+      <c r="K2">
+        <v>0.70982522334535603</v>
+      </c>
+      <c r="L2">
+        <v>95.314567795810603</v>
+      </c>
+      <c r="M2">
+        <v>98.097031541960604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>97.182722602590502</v>
+      </c>
+      <c r="K3">
+        <v>0.59857832747554196</v>
+      </c>
+      <c r="L3">
+        <v>96.009530638812294</v>
+      </c>
+      <c r="M3">
+        <v>98.355914566368796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>95.856477562995195</v>
+      </c>
+      <c r="K4">
+        <v>1.24627388130476</v>
+      </c>
+      <c r="L4">
+        <v>93.413825640764898</v>
+      </c>
+      <c r="M4">
+        <v>98.299129485225393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>88.088235938525202</v>
+      </c>
+      <c r="K5">
+        <v>4.2130141216591097</v>
+      </c>
+      <c r="L5">
+        <v>79.830879993714703</v>
+      </c>
+      <c r="M5">
+        <v>96.3455918833357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>96.733260908018806</v>
+      </c>
+      <c r="K6">
+        <v>1.07504508490045</v>
+      </c>
+      <c r="L6">
+        <v>94.626211259857101</v>
+      </c>
+      <c r="M6">
+        <v>98.840310556180498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>98.352405236979493</v>
+      </c>
+      <c r="K7">
+        <v>1.03015749603909</v>
+      </c>
+      <c r="L7">
+        <v>96.3333336463389</v>
+      </c>
+      <c r="M7">
+        <v>100.37147682762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>99.034507448966494</v>
+      </c>
+      <c r="K8">
+        <v>0.87479968618921999</v>
+      </c>
+      <c r="L8">
+        <v>97.319931570348601</v>
+      </c>
+      <c r="M8">
+        <v>100.749083327584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>97.543083370246293</v>
+      </c>
+      <c r="K9">
+        <v>0.89980349937996995</v>
+      </c>
+      <c r="L9">
+        <v>95.779500918298496</v>
+      </c>
+      <c r="M9">
+        <v>99.306665822194205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>91.416218893791793</v>
+      </c>
+      <c r="K10">
+        <v>2.9527088419099399</v>
+      </c>
+      <c r="L10">
+        <v>85.629015906815297</v>
+      </c>
+      <c r="M10">
+        <v>97.203421880768204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>96.155470444560194</v>
+      </c>
+      <c r="K11">
+        <v>1.4304714350104599</v>
+      </c>
+      <c r="L11">
+        <v>93.351797951026398</v>
+      </c>
+      <c r="M11">
+        <v>98.959142938094004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>99.051098562439506</v>
+      </c>
+      <c r="K12">
+        <v>0.59033406228724805</v>
+      </c>
+      <c r="L12">
+        <v>97.894065061509295</v>
+      </c>
+      <c r="M12">
+        <v>100.20813206337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>99.263990917664898</v>
+      </c>
+      <c r="K13">
+        <v>0.71589057902169495</v>
+      </c>
+      <c r="L13">
+        <v>97.860871165910794</v>
+      </c>
+      <c r="M13">
+        <v>100.667110669419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>96.9967270818277</v>
+      </c>
+      <c r="K14">
+        <v>1.2096080418175399</v>
+      </c>
+      <c r="L14">
+        <v>94.625938884455294</v>
+      </c>
+      <c r="M14">
+        <v>99.367515279200106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>82.256234176933404</v>
+      </c>
+      <c r="K15">
+        <v>7.9762834095446697</v>
+      </c>
+      <c r="L15">
+        <v>66.623005963741505</v>
+      </c>
+      <c r="M15">
+        <v>97.889462390125303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>97.743946003559202</v>
+      </c>
+      <c r="K16">
+        <v>0.60947997985759095</v>
+      </c>
+      <c r="L16">
+        <v>96.549387193740202</v>
+      </c>
+      <c r="M16">
+        <v>98.938504813378302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>97.127849329693603</v>
+      </c>
+      <c r="K17">
+        <v>2.1210111888380698</v>
+      </c>
+      <c r="L17">
+        <v>92.970743788764494</v>
+      </c>
+      <c r="M17">
+        <v>101.284954870623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>98.621052106277702</v>
+      </c>
+      <c r="K18">
+        <v>1.1748791346335501</v>
+      </c>
+      <c r="L18">
+        <v>96.318331316208301</v>
+      </c>
+      <c r="M18">
+        <v>100.923772896347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>98.542432657372004</v>
+      </c>
+      <c r="K19">
+        <v>0.67867328571959495</v>
+      </c>
+      <c r="L19">
+        <v>97.212257460092104</v>
+      </c>
+      <c r="M19">
+        <v>99.872607854651804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20">
+        <v>83.834183246223702</v>
+      </c>
+      <c r="K20">
+        <v>1.3952545634505999</v>
+      </c>
+      <c r="L20">
+        <v>81.099534552595401</v>
+      </c>
+      <c r="M20">
+        <v>86.568831939852004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21">
+        <v>83.131112319752305</v>
+      </c>
+      <c r="K21">
+        <v>1.4810317063995</v>
+      </c>
+      <c r="L21">
+        <v>80.228343515247403</v>
+      </c>
+      <c r="M21">
+        <v>86.033881124257206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22">
+        <v>85.493646031302404</v>
+      </c>
+      <c r="K22">
+        <v>2.1402455166196002</v>
+      </c>
+      <c r="L22">
+        <v>81.298841900654693</v>
+      </c>
+      <c r="M22">
+        <v>89.6884501619502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23">
+        <v>84.096235611713794</v>
+      </c>
+      <c r="K23">
+        <v>3.3222402538012199</v>
+      </c>
+      <c r="L23">
+        <v>77.5847643662742</v>
+      </c>
+      <c r="M23">
+        <v>90.607706857153403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24">
+        <v>74.832354273841403</v>
+      </c>
+      <c r="K24">
+        <v>1.9594154448877401</v>
+      </c>
+      <c r="L24">
+        <v>70.991970571110002</v>
+      </c>
+      <c r="M24">
+        <v>78.672737976572904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25">
+        <v>84.038862278699796</v>
+      </c>
+      <c r="K25">
+        <v>2.6299530865671898</v>
+      </c>
+      <c r="L25">
+        <v>78.884248947998202</v>
+      </c>
+      <c r="M25">
+        <v>89.193475609401503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26">
+        <v>96.911046485399694</v>
+      </c>
+      <c r="K26">
+        <v>1.34628816420917</v>
+      </c>
+      <c r="L26">
+        <v>94.272370170737105</v>
+      </c>
+      <c r="M26">
+        <v>99.549722800062199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27">
+        <v>90.484924867789502</v>
+      </c>
+      <c r="K27">
+        <v>1.8687781434950701</v>
+      </c>
+      <c r="L27">
+        <v>86.822187011443603</v>
+      </c>
+      <c r="M27">
+        <v>94.1476627241355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28">
+        <v>83.545012324909706</v>
+      </c>
+      <c r="K28">
+        <v>3.2909483018049701</v>
+      </c>
+      <c r="L28">
+        <v>77.094872178388698</v>
+      </c>
+      <c r="M28">
+        <v>89.9951524714307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29">
+        <v>74.034021800789105</v>
+      </c>
+      <c r="K29">
+        <v>2.08113006044147</v>
+      </c>
+      <c r="L29">
+        <v>69.955081835180195</v>
+      </c>
+      <c r="M29">
+        <v>78.112961766398101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <v>82.930123877285496</v>
+      </c>
+      <c r="K30">
+        <v>2.7872951951118501</v>
+      </c>
+      <c r="L30">
+        <v>77.4671256805848</v>
+      </c>
+      <c r="M30">
+        <v>88.393122073986305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>97.073471483504306</v>
+      </c>
+      <c r="K31">
+        <v>1.4802739941310801</v>
+      </c>
+      <c r="L31">
+        <v>94.172187767756199</v>
+      </c>
+      <c r="M31">
+        <v>99.974755199252499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32">
+        <v>92.659652272130302</v>
+      </c>
+      <c r="K32">
+        <v>1.5356245649325799</v>
+      </c>
+      <c r="L32">
+        <v>89.649883431087403</v>
+      </c>
+      <c r="M32">
+        <v>95.669421113173101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33">
+        <v>85.348912855876307</v>
+      </c>
+      <c r="K33">
+        <v>5.4432457000066901</v>
+      </c>
+      <c r="L33">
+        <v>74.680347324860605</v>
+      </c>
+      <c r="M33">
+        <v>96.017478386891895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34">
+        <v>76.827780216066103</v>
+      </c>
+      <c r="K34">
+        <v>3.3873687257662399</v>
+      </c>
+      <c r="L34">
+        <v>70.188659511206893</v>
+      </c>
+      <c r="M34">
+        <v>83.466900920925298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35">
+        <v>86.670613718765594</v>
+      </c>
+      <c r="K35">
+        <v>3.90656836475728</v>
+      </c>
+      <c r="L35">
+        <v>79.013880420697802</v>
+      </c>
+      <c r="M35">
+        <v>94.3273470168334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36">
+        <v>96.568965003146403</v>
+      </c>
+      <c r="K36">
+        <v>2.4453849725355998</v>
+      </c>
+      <c r="L36">
+        <v>91.7760985286411</v>
+      </c>
+      <c r="M36">
+        <v>101.361831477652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37">
+        <v>85.568193615934106</v>
+      </c>
+      <c r="K37">
+        <v>4.0067724528615098</v>
+      </c>
+      <c r="L37">
+        <v>77.7150639140783</v>
+      </c>
+      <c r="M37">
+        <v>93.421323317789899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>87</v>
       </c>
       <c r="G2" t="s">
@@ -3763,7 +3916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6122,7 +6275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8061,7 +8214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12544,7 +12697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19523,7 +19676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25242,7 +25395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26773,7 +26926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29132,7 +29285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31071,7 +31224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -32602,7 +32755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -34961,7 +35114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37320,7 +37473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39259,7 +39412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40790,7 +40943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -43149,7 +43302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -45088,7 +45241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46619,7 +46772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -48978,7 +49131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -50917,7 +51070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -52448,7 +52601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -54807,7 +54960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -56746,7 +56899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -58685,7 +58838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -60219,66 +60372,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H2">
         <v>94.887310098161393</v>
@@ -60295,25 +60448,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H3">
         <v>97.710374778576707</v>
@@ -60330,25 +60483,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H4">
         <v>91.200459429909003</v>
@@ -60365,25 +60518,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H5">
         <v>93.097622241503103</v>
@@ -60400,25 +60553,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H6">
         <v>99.695887702770406</v>
@@ -60435,25 +60588,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H7">
         <v>95.149365807986499</v>
@@ -60470,25 +60623,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -60505,25 +60658,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H9">
         <v>79.930674039903806</v>
@@ -60540,25 +60693,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -60575,25 +60728,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H11">
         <v>87.555396740189593</v>
@@ -60610,25 +60763,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -60645,25 +60798,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -60680,25 +60833,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H14">
         <v>100</v>
@@ -60715,25 +60868,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H15">
         <v>82.048902906354797</v>
@@ -60750,25 +60903,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H16">
         <v>93.453895241263297</v>
@@ -60785,25 +60938,25 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H17">
         <v>61.197738584345998</v>
@@ -60820,25 +60973,25 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H18">
         <v>92.727516973083894</v>
@@ -60855,25 +61008,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H19">
         <v>84.043714469321301</v>
@@ -60890,25 +61043,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -60925,25 +61078,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -60960,25 +61113,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -60995,25 +61148,25 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -61030,25 +61183,25 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H24">
         <v>100</v>
@@ -61065,25 +61218,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H25">
         <v>86.651799609520694</v>
@@ -61100,25 +61253,25 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H26">
         <v>91.124323104280407</v>
@@ -61135,25 +61288,25 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H27">
         <v>85.120947748575801</v>
@@ -61170,25 +61323,25 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -61205,25 +61358,25 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H29">
         <v>99.867729485604002</v>
@@ -61240,25 +61393,25 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H30">
         <v>99.337552825923197</v>
@@ -61275,25 +61428,25 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -61310,25 +61463,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -61345,25 +61498,25 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -61380,25 +61533,25 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H34">
         <v>74.355812065777002</v>
@@ -61415,25 +61568,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H35">
         <v>93.737385510682998</v>
@@ -61450,25 +61603,25 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H36">
         <v>99.749542657137098</v>
@@ -61485,25 +61638,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H37">
         <v>96.086706567566196</v>
@@ -61520,25 +61673,25 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H38">
         <v>93.522110424347701</v>
@@ -61555,25 +61708,25 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H39">
         <v>90.988054684067393</v>
@@ -61590,25 +61743,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H40">
         <v>95.376513888671994</v>
@@ -61625,25 +61778,25 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H41">
         <v>100</v>
@@ -61660,25 +61813,25 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H42">
         <v>100</v>
@@ -61695,25 +61848,25 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H43">
         <v>98.795117757771806</v>
@@ -61730,25 +61883,25 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -61765,25 +61918,25 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H45">
         <v>100</v>
@@ -61800,25 +61953,25 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -61835,25 +61988,25 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -61870,25 +62023,25 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H48">
         <v>85.486889677780198</v>
@@ -61905,25 +62058,25 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H49">
         <v>87.6075424999012</v>
@@ -61940,25 +62093,25 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -61975,25 +62128,25 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H51">
         <v>94.202743266867003</v>
@@ -62010,25 +62163,25 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H52">
         <v>100</v>
@@ -62045,25 +62198,25 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H53">
         <v>98.287692486017207</v>
@@ -62080,25 +62233,25 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H54">
         <v>100</v>
@@ -62115,25 +62268,25 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -62150,25 +62303,25 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H56">
         <v>95.363243318384406</v>
@@ -62185,25 +62338,25 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H57">
         <v>91.226431605852099</v>
@@ -62220,25 +62373,25 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H58">
         <v>95.633180807688404</v>
@@ -62255,25 +62408,25 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H59">
         <v>84.1365293836473</v>
@@ -62290,25 +62443,25 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H60">
         <v>96.519763423867403</v>
@@ -62325,25 +62478,25 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H61">
         <v>89.328956295029101</v>
@@ -62360,25 +62513,25 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H62">
         <v>93.806970898541195</v>
@@ -62395,25 +62548,25 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H63">
         <v>91.034426936976004</v>
@@ -62430,25 +62583,25 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H64">
         <v>95.388088088610004</v>
@@ -62465,25 +62618,25 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H65">
         <v>97.861825239249796</v>
@@ -62500,25 +62653,25 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H66">
         <v>96.548757677034502</v>
@@ -62535,25 +62688,25 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H67">
         <v>94.096746649441002</v>
@@ -62575,7 +62728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -64514,7 +64667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -66045,7 +66198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -68404,7 +68557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -70343,7 +70496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -74826,7 +74979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -81805,7 +81958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
